--- a/src/test/resources/opendata/searchOpenDataTests.xlsx
+++ b/src/test/resources/opendata/searchOpenDataTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrs\Documents\secret_project\rtr-statistic\src\test\resources\opendata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE2411C-592A-4B43-913C-24C899B3E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F6B2B1-BFBB-43E8-A22D-F77647B1AFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="60" windowWidth="19200" windowHeight="6890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>client_time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>download_classification</t>
   </si>
@@ -31,9 +28,6 @@
     <t>download_kbit</t>
   </si>
   <si>
-    <t>full_time</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>upload_kbit</t>
-  </si>
-  <si>
-    <t>DEFAULT_FULL_TIME_STRING</t>
   </si>
   <si>
     <t>DEFAULT_MODEL</t>
@@ -452,139 +443,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="15" max="15" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>31.3</v>
+      </c>
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>164174122517</v>
-      </c>
-      <c r="B2">
+      <c r="F2">
+        <v>900</v>
+      </c>
+      <c r="G2">
+        <v>36000</v>
+      </c>
+      <c r="H2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I2">
+        <v>-94</v>
+      </c>
+      <c r="J2">
+        <v>-34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>13.7</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>900</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>31.3</v>
-      </c>
-      <c r="F2">
-        <v>13.7</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>-34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
         <v>88</v>
-      </c>
-      <c r="Q2">
-        <v>-94</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>36000</v>
       </c>
     </row>
   </sheetData>
